--- a/Daniel_X/evidence.xlsx
+++ b/Daniel_X/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GON\Daniel_X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6408484-A57D-4070-9A20-0DDE60D3BD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24547D72-41D8-4DCA-955F-CBF3C2F70E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="3510" windowWidth="26790" windowHeight="15345" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
   <si>
     <t>TeamName</t>
   </si>
@@ -81,36 +81,12 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>tx hash on that chain</t>
   </si>
   <si>
@@ -148,13 +124,85 @@
   </si>
   <si>
     <t>omniflix1evtsujuuh8ksdl9ds7v4jyvh9wxgz5mkgqkwus</t>
+  </si>
+  <si>
+    <t>1C1DD2B9431AD2844A85B7B9FA8C88993044945F868B227C6D19F0D5E50A4DBC</t>
+  </si>
+  <si>
+    <t>danielx1</t>
+  </si>
+  <si>
+    <t>danielxnft001</t>
+  </si>
+  <si>
+    <t>danielxnft002</t>
+  </si>
+  <si>
+    <t>danielxnft003</t>
+  </si>
+  <si>
+    <t>danielxnft004</t>
+  </si>
+  <si>
+    <t>2A7F8A47245AA24C8F2D423E520B07BA08DC545298D9853877133B92577EDB2D</t>
+  </si>
+  <si>
+    <t>B6DBC68D68419FAEB25407DDF61F3A36749AF76672388BDED92EF655AC6052B3</t>
+  </si>
+  <si>
+    <t>85C1D65008291D34CFEA291E441F1D6837315FFBA15C2E1B28793D529FD22123</t>
+  </si>
+  <si>
+    <t>C8BF36800721A5D1962834D6E95E24F6A9E0A0E467727BD0F5E48FAAD536A151</t>
+  </si>
+  <si>
+    <t>7750F1F3FE90BF52881DCB239F1257C53F50B643AA62E007F231AD1F010B2A5F</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>stars1hczm9f73sp0d5ascs6wlwt2wmnfuhyjd2pg443ulwkf9g6e926tq852gwx</t>
+  </si>
+  <si>
+    <t>C10D5F353804003D0029A0639A1988FC32915769EF9FF54BA799E639403980FD</t>
+  </si>
+  <si>
+    <t>70D38DF27AFFF2F1F4B622F1CC7627EDF426EBC5170F4054D06B538A67B3D8ED</t>
+  </si>
+  <si>
+    <t>ibc/830616A799CC75581D8FB6723EB3D2B4EDA8EABFE67A957386D47DBF2C770D49</t>
+  </si>
+  <si>
+    <t>A8A6C953330354409A1476E4AE6F772BA3A36D10B88074C946465277CC7F826C</t>
+  </si>
+  <si>
+    <t>danielxnft007</t>
+  </si>
+  <si>
+    <t>danielxnft008</t>
+  </si>
+  <si>
+    <t>danielxnft009</t>
+  </si>
+  <si>
+    <t>danielxnft010</t>
+  </si>
+  <si>
+    <t>danielxnft011</t>
+  </si>
+  <si>
+    <t>danielxnft012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -168,6 +216,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -228,6 +281,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -614,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -658,28 +714,28 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -705,15 +763,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -739,15 +799,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -773,15 +835,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -807,15 +871,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -841,25 +905,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -885,25 +949,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -929,25 +993,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -973,25 +1037,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1017,25 +1081,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1061,25 +1125,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1109,10 +1175,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1138,25 +1204,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1182,25 +1248,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1227,12 +1293,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1259,12 +1325,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1291,12 +1357,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1323,12 +1389,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1339,9 +1405,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1357,18 +1425,51 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1398,24 +1501,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1445,24 +1550,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1492,24 +1599,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1540,24 +1649,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1570,7 +1679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1583,15 +1694,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1617,15 +1730,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
